--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E248AC3-D085-4F1A-8EA6-BE7F2537E8DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F383EA49-C486-40DF-B82C-0D9F4AA52887}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>requestID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -34,21 +31,35 @@
     <t>projectID</t>
   </si>
   <si>
-    <t>requestType</t>
-  </si>
-  <si>
     <t>newTitle</t>
   </si>
   <si>
     <t>newSupervisor</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -76,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,38 +370,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F383EA49-C486-40DF-B82C-0D9F4AA52887}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B896135-5FA1-4AA6-BA67-959AA819C3AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -370,13 +385,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -404,6 +428,26 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B896135-5FA1-4AA6-BA67-959AA819C3AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -385,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,26 +414,6 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29FD957-EEF4-4AA6-86DB-2919D9151ED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29FD957-EEF4-4AA6-86DB-2919D9151ED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F073CCB2-BFD8-4532-90E3-8E975DF42216}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>YPKE</t>
+  </si>
+  <si>
+    <t>BOAN</t>
   </si>
 </sst>
 </file>
@@ -370,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,6 +429,29 @@
       </c>
       <c r="I1" s="1"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F073CCB2-BFD8-4532-90E3-8E975DF42216}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4389F-89B4-438B-84AB-B01AE40B67DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>ASMADHUKUMAR</t>
-  </si>
-  <si>
-    <t>CHANGESUPERVISOR</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>YPKE</t>
-  </si>
-  <si>
-    <t>BOAN</t>
   </si>
 </sst>
 </file>
@@ -385,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,29 +414,6 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,28 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YPKE</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -378,13 +394,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +429,30 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,25 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -378,13 +391,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +426,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4389F-89B4-438B-84AB-B01AE40B67DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E1F786-4118-C54C-A14B-3392E9DB97FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,25 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,21 +373,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -427,27 +414,10 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -50,6 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -378,13 +379,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -414,6 +415,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4389F-89B4-438B-84AB-B01AE40B67DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9F4E4-A696-4D36-A33D-973E9537E270}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,25 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -426,28 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9F4E4-A696-4D36-A33D-973E9537E270}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF8AC9-B007-4BD6-BE86-BF527404BAAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,28 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
@@ -378,13 +394,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +429,50 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF8AC9-B007-4BD6-BE86-BF527404BAAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,28 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -429,50 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="15">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,34 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>DEREGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>CT113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -378,13 +400,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -414,6 +436,248 @@
       </c>
       <c r="I1" s="1"/>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="15">
   <si>
     <t>fromUser</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -678,6 +678,28 @@
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>APPROVED</t>
-  </si>
-  <si>
-    <t>DEREGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>CT113</t>
   </si>
 </sst>
 </file>
@@ -392,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -453,252 +447,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,28 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -378,13 +394,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +429,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>fromUser</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>APPROVED</t>
+  </si>
+  <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>ASJMZHENG</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -452,6 +461,30 @@
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,31 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>VOIDED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -378,13 +397,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +432,94 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -61,22 +61,7 @@
     <t>APPROVED</t>
   </si>
   <si>
-    <t>ASMADHUKUMAR</t>
-  </si>
-  <si>
-    <t>CHANGESUPERVISOR</t>
-  </si>
-  <si>
-    <t>ASJMZHENG</t>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>VOIDED</t>
   </si>
 </sst>
 </file>
@@ -404,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -465,7 +450,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -474,23 +459,23 @@
       <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" s="0"/>
-      <c r="H3" t="s" s="0">
-        <v>15</v>
-      </c>
+      <c r="H3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
@@ -506,10 +491,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -522,45 +507,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="F5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>17</v>
-      </c>
+        <v>14.0</v>
+      </c>
+      <c r="G5" s="0"/>
       <c r="H5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>fromUser</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>ASJMZHENG</t>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -465,9 +474,7 @@
       <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
+      <c r="B3" s="0"/>
       <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
@@ -484,6 +491,76 @@
       <c r="H3" t="s" s="0">
         <v>15</v>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E80CEF-3D4E-4C31-9F2F-C554C425323B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>fromUser</t>
   </si>
@@ -58,25 +58,22 @@
     <t>PENDING</t>
   </si>
   <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>APPROVED</t>
   </si>
   <si>
-    <t>ASMADHUKUMAR</t>
-  </si>
-  <si>
     <t>CHANGESUPERVISOR</t>
   </si>
   <si>
-    <t>ASJMZHENG</t>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +459,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -474,93 +471,49 @@
       <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="G3" s="0"/>
-      <c r="H3" t="s" s="0">
-        <v>15</v>
-      </c>
+      <c r="G3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="s" s="0">
+      <c r="H4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E80CEF-3D4E-4C31-9F2F-C554C425323B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>fromUser</t>
   </si>
@@ -58,10 +58,22 @@
     <t>PENDING</t>
   </si>
   <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>APPROVED</t>
   </si>
   <si>
-    <t>VOIDED</t>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -389,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,10 +459,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -463,18 +475,20 @@
         <v>8</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="G3" s="0"/>
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="H3" s="0"/>
     </row>
     <row r="4">
@@ -482,44 +496,24 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E80CEF-3D4E-4C31-9F2F-C554C425323B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A8B2C-CEC4-8A4B-9D37-390012808D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,43 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>ASMADHUKUMAR</t>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>CHANGESUPERVISOR</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,24 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -444,76 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" t="s" s="0">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,28 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -378,13 +394,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -413,6 +429,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>APPROVED</t>
+  </si>
+  <si>
+    <t>DEREGISTERPROJECT</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -452,6 +455,28 @@
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A8B2C-CEC4-8A4B-9D37-390012808D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8416C-7DFF-CB42-92B8-60F3564C3EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,31 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>DEREGISTERPROJECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -432,50 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8416C-7DFF-CB42-92B8-60F3564C3EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E45B7-AFC9-4C91-B670-8649F4156D13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,40 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>DEREGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>yays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,24 +398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A2:F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -413,6 +441,96 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H5" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>fromUser</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -532,6 +532,28 @@
       </c>
       <c r="H5" s="0"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E45B7-AFC9-4C91-B670-8649F4156D13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB7A87B-3901-4553-80E3-6406A7000F45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,40 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>DEREGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>ASMADHUKUMAR</t>
-  </si>
-  <si>
-    <t>yays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.44140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -441,118 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0"/>
-      <c r="D4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB7A87B-3901-4553-80E3-6406A7000F45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2C397-7316-423A-932B-0405DD764F32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,46 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>BOAN</t>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>New Title</t>
+  </si>
+  <si>
+    <t>DEREGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>xd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,21 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -414,6 +448,142 @@
       </c>
       <c r="I1" s="1"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H7" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2C397-7316-423A-932B-0405DD764F32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,46 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>BOAN</t>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>New Title</t>
-  </si>
-  <si>
-    <t>DEREGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>xd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.44140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -447,142 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H7" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,25 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A2:XFD6"/>
@@ -378,13 +391,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +426,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,28 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -378,13 +394,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +429,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED06FE7-0418-FE48-AF13-FAE14F8F5FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,28 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,24 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -429,28 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,31 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -378,13 +397,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -413,6 +432,50 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92613886-7080-1343-B52C-DF4889CE44A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED06FE7-0418-FE48-AF13-FAE14F8F5FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,31 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,21 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A2:H4"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -413,6 +432,50 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>fromUser</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>APPROVED</t>
+  </si>
+  <si>
+    <t>BOAN</t>
+  </si>
+  <si>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>asjmzheng</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -477,6 +486,30 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED06FE7-0418-FE48-AF13-FAE14F8F5FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92613886-7080-1343-B52C-DF4889CE44A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,40 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>KOH1</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>BOAN</t>
-  </si>
-  <si>
-    <t>CHANGESUPERVISOR</t>
-  </si>
-  <si>
-    <t>asjmzheng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="H4" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -441,74 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" t="s" s="0">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,31 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>DEREGISTERPROJECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -378,13 +397,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -413,6 +432,50 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC70C6F-DF79-418A-8D4A-E07148230AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,31 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>DEREGISTERPROJECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,24 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.77734375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -432,50 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,52 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>BOAN</t>
+  </si>
+  <si>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>asjmzheng</t>
+  </si>
+  <si>
+    <t>ASJMZHENG</t>
+  </si>
+  <si>
+    <t>CHANGETITLE</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning for Complex Environment 2</t>
+  </si>
+  <si>
+    <t>boan</t>
+  </si>
+  <si>
+    <t>DEREGISTERPROJECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="A2:H4"/>
@@ -378,13 +418,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -413,6 +453,122 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,31 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>CT113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="A2:H4"/>
@@ -378,13 +397,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -413,6 +432,72 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92613886-7080-1343-B52C-DF4889CE44A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224CAF6-3D56-314E-8F65-01E8AF32DA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,31 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>KOH1</t>
-  </si>
-  <si>
-    <t>CT113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,21 +370,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A2:H4"/>
+      <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -432,72 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,12 +44,37 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>ASFLI</t>
+  </si>
+  <si>
+    <t>REGISTERPROJECT</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H6"/>
@@ -378,13 +403,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -413,6 +438,72 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92613886-7080-1343-B52C-DF4889CE44A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D297-5416-41C2-A9B5-CCBFE3298492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,52 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>BOAN</t>
-  </si>
-  <si>
-    <t>CHANGESUPERVISOR</t>
-  </si>
-  <si>
-    <t>asjmzheng</t>
-  </si>
-  <si>
-    <t>ASJMZHENG</t>
-  </si>
-  <si>
-    <t>CHANGETITLE</t>
-  </si>
-  <si>
-    <t>Deep Reinforcement Learning for Complex Environment 2</t>
-  </si>
-  <si>
-    <t>boan</t>
-  </si>
-  <si>
-    <t>DEREGISTERPROJECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,24 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A2:H4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -453,122 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>fromUser</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>REJECTED</t>
+  </si>
+  <si>
+    <t>BOAN</t>
+  </si>
+  <si>
+    <t>CHANGESUPERVISOR</t>
+  </si>
+  <si>
+    <t>DNIYATO</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H6"/>
@@ -505,6 +514,30 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/App/data/request_list.xlsx
+++ b/App/data/request_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224CAF6-3D56-314E-8F65-01E8AF32DA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D22F0B-7D27-42B5-B9B1-393F52A7FB88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fromUser</t>
   </si>
@@ -44,46 +44,12 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>ASFLI</t>
-  </si>
-  <si>
-    <t>REGISTERPROJECT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>KOH1</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>BOAN</t>
-  </si>
-  <si>
-    <t>CHANGESUPERVISOR</t>
-  </si>
-  <si>
-    <t>DNIYATO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,24 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H6"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.83203125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.6640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83203125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -447,96 +413,6 @@
         <v>4</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" t="s" s="0">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
